--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F13a1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F13a1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>F13a1</t>
+  </si>
+  <si>
+    <t>Itga4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>F13a1</t>
-  </si>
-  <si>
-    <t>Itga4</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.079613</v>
+        <v>0.2742633333333334</v>
       </c>
       <c r="H2">
-        <v>0.238839</v>
+        <v>0.82279</v>
       </c>
       <c r="I2">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="J2">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N2">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O2">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P2">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q2">
-        <v>0.03032538783000001</v>
+        <v>0.1289716011311111</v>
       </c>
       <c r="R2">
-        <v>0.27292849047</v>
+        <v>1.16074441018</v>
       </c>
       <c r="S2">
-        <v>1.062903526403704E-05</v>
+        <v>5.304621128761348E-05</v>
       </c>
       <c r="T2">
-        <v>1.062903526403704E-05</v>
+        <v>5.304621128761348E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.079613</v>
+        <v>0.2742633333333334</v>
       </c>
       <c r="H3">
-        <v>0.238839</v>
+        <v>0.82279</v>
       </c>
       <c r="I3">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="J3">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q3">
-        <v>0.02543486739066666</v>
+        <v>0.08762201541777778</v>
       </c>
       <c r="R3">
-        <v>0.228913806516</v>
+        <v>0.7885981387600001</v>
       </c>
       <c r="S3">
-        <v>8.914909974013738E-06</v>
+        <v>3.603906520919163E-05</v>
       </c>
       <c r="T3">
-        <v>8.914909974013738E-06</v>
+        <v>3.603906520919163E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.079613</v>
+        <v>0.2742633333333334</v>
       </c>
       <c r="H4">
-        <v>0.238839</v>
+        <v>0.82279</v>
       </c>
       <c r="I4">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="J4">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N4">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O4">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P4">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q4">
-        <v>0.159896500686</v>
+        <v>0.2872379088433333</v>
       </c>
       <c r="R4">
-        <v>1.439068506174</v>
+        <v>2.58514117959</v>
       </c>
       <c r="S4">
-        <v>5.604365404706573E-05</v>
+        <v>0.0001181413789445482</v>
       </c>
       <c r="T4">
-        <v>5.604365404706572E-05</v>
+        <v>0.0001181413789445482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.079613</v>
+        <v>0.2742633333333334</v>
       </c>
       <c r="H5">
-        <v>0.238839</v>
+        <v>0.82279</v>
       </c>
       <c r="I5">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="J5">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N5">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q5">
-        <v>4.354356579982333</v>
+        <v>13.77095660221222</v>
       </c>
       <c r="R5">
-        <v>39.189209219841</v>
+        <v>123.93860941991</v>
       </c>
       <c r="S5">
-        <v>0.001526200090177839</v>
+        <v>0.005664014923803963</v>
       </c>
       <c r="T5">
-        <v>0.001526200090177839</v>
+        <v>0.005664014923803963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,46 +785,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2742633333333334</v>
+        <v>0.084995</v>
       </c>
       <c r="H6">
-        <v>0.82279</v>
+        <v>0.254985</v>
       </c>
       <c r="I6">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408946</v>
       </c>
       <c r="J6">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408947</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N6">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O6">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P6">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q6">
-        <v>0.1044696463</v>
+        <v>0.03996867209666666</v>
       </c>
       <c r="R6">
-        <v>0.9402268167000001</v>
+        <v>0.35971804887</v>
       </c>
       <c r="S6">
-        <v>3.661656565676895E-05</v>
+        <v>1.643917425487928E-05</v>
       </c>
       <c r="T6">
-        <v>3.661656565676895E-05</v>
+        <v>1.643917425487928E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2742633333333334</v>
+        <v>0.084995</v>
       </c>
       <c r="H7">
-        <v>0.82279</v>
+        <v>0.254985</v>
       </c>
       <c r="I7">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408946</v>
       </c>
       <c r="J7">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408947</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q7">
-        <v>0.08762201541777777</v>
+        <v>0.02715431592666667</v>
       </c>
       <c r="R7">
-        <v>0.7885981387599998</v>
+        <v>0.24438884334</v>
       </c>
       <c r="S7">
-        <v>3.071147834951061E-05</v>
+        <v>1.116861051102435E-05</v>
       </c>
       <c r="T7">
-        <v>3.071147834951061E-05</v>
+        <v>1.116861051102435E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2742633333333334</v>
+        <v>0.084995</v>
       </c>
       <c r="H8">
-        <v>0.82279</v>
+        <v>0.254985</v>
       </c>
       <c r="I8">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408946</v>
       </c>
       <c r="J8">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408947</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N8">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O8">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P8">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q8">
-        <v>0.55083651246</v>
+        <v>0.089015858465</v>
       </c>
       <c r="R8">
-        <v>4.95752861214</v>
+        <v>0.801142726185</v>
       </c>
       <c r="S8">
-        <v>0.000193067958387806</v>
+        <v>3.661235492674391E-05</v>
       </c>
       <c r="T8">
-        <v>0.000193067958387806</v>
+        <v>3.661235492674391E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2742633333333334</v>
+        <v>0.084995</v>
       </c>
       <c r="H9">
-        <v>0.82279</v>
+        <v>0.254985</v>
       </c>
       <c r="I9">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408946</v>
       </c>
       <c r="J9">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408947</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N9">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q9">
-        <v>15.00056963244556</v>
+        <v>4.267659268118334</v>
       </c>
       <c r="R9">
-        <v>135.00512669201</v>
+        <v>38.40893341306501</v>
       </c>
       <c r="S9">
-        <v>0.005257693141394097</v>
+        <v>0.001755294601716299</v>
       </c>
       <c r="T9">
-        <v>0.005257693141394097</v>
+        <v>0.001755294601716299</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.919031333333334</v>
+        <v>46.353746</v>
       </c>
       <c r="H10">
-        <v>5.757094</v>
+        <v>139.061238</v>
       </c>
       <c r="I10">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="J10">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N10">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O10">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P10">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q10">
-        <v>0.7309782251800001</v>
+        <v>21.79772544651066</v>
       </c>
       <c r="R10">
-        <v>6.57880402662</v>
+        <v>196.179529018596</v>
       </c>
       <c r="S10">
-        <v>0.0002562075504602518</v>
+        <v>0.008965436882880326</v>
       </c>
       <c r="T10">
-        <v>0.0002562075504602518</v>
+        <v>0.008965436882880326</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.919031333333334</v>
+        <v>46.353746</v>
       </c>
       <c r="H11">
-        <v>5.757094</v>
+        <v>139.061238</v>
       </c>
       <c r="I11">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="J11">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q11">
-        <v>0.6130946890817778</v>
+        <v>14.80915657707467</v>
       </c>
       <c r="R11">
-        <v>5.517852201736</v>
+        <v>133.282409193672</v>
       </c>
       <c r="S11">
-        <v>0.0002148894222548857</v>
+        <v>0.006091028116959269</v>
       </c>
       <c r="T11">
-        <v>0.0002148894222548857</v>
+        <v>0.006091028116959269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.919031333333334</v>
+        <v>46.353746</v>
       </c>
       <c r="H12">
-        <v>5.757094</v>
+        <v>139.061238</v>
       </c>
       <c r="I12">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="J12">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N12">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O12">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P12">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q12">
-        <v>3.854224748556</v>
+        <v>48.546602662022</v>
       </c>
       <c r="R12">
-        <v>34.688022737004</v>
+        <v>436.919423958198</v>
       </c>
       <c r="S12">
-        <v>0.001350904100471187</v>
+        <v>0.01996728984923979</v>
       </c>
       <c r="T12">
-        <v>0.001350904100471187</v>
+        <v>0.01996728984923979</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.919031333333334</v>
+        <v>46.353746</v>
       </c>
       <c r="H13">
-        <v>5.757094</v>
+        <v>139.061238</v>
       </c>
       <c r="I13">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="J13">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N13">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q13">
-        <v>104.9595758669096</v>
+        <v>2327.454482368412</v>
       </c>
       <c r="R13">
-        <v>944.6361828021861</v>
+        <v>20947.09034131571</v>
       </c>
       <c r="S13">
-        <v>0.03678828575719334</v>
+        <v>0.9572854888302663</v>
       </c>
       <c r="T13">
-        <v>0.03678828575719334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>47.42968433333333</v>
-      </c>
-      <c r="H14">
-        <v>142.289053</v>
-      </c>
-      <c r="I14">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="J14">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.38091</v>
-      </c>
-      <c r="N14">
-        <v>1.14273</v>
-      </c>
-      <c r="O14">
-        <v>0.006635732896411961</v>
-      </c>
-      <c r="P14">
-        <v>0.00663573289641196</v>
-      </c>
-      <c r="Q14">
-        <v>18.06644105941</v>
-      </c>
-      <c r="R14">
-        <v>162.59796953469</v>
-      </c>
-      <c r="S14">
-        <v>0.006332279745030903</v>
-      </c>
-      <c r="T14">
-        <v>0.006332279745030902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>47.42968433333333</v>
-      </c>
-      <c r="H15">
-        <v>142.289053</v>
-      </c>
-      <c r="I15">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="J15">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.3194813333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.9584439999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.005565600255676025</v>
-      </c>
-      <c r="P15">
-        <v>0.005565600255676025</v>
-      </c>
-      <c r="Q15">
-        <v>15.15289879039244</v>
-      </c>
-      <c r="R15">
-        <v>136.376089113532</v>
-      </c>
-      <c r="S15">
-        <v>0.005311084445097615</v>
-      </c>
-      <c r="T15">
-        <v>0.005311084445097615</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>47.42968433333333</v>
-      </c>
-      <c r="H16">
-        <v>142.289053</v>
-      </c>
-      <c r="I16">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="J16">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.008422</v>
-      </c>
-      <c r="N16">
-        <v>6.025265999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.03498819126638183</v>
-      </c>
-      <c r="P16">
-        <v>0.03498819126638182</v>
-      </c>
-      <c r="Q16">
-        <v>95.25882146812199</v>
-      </c>
-      <c r="R16">
-        <v>857.3293932130979</v>
-      </c>
-      <c r="S16">
-        <v>0.03338817555347577</v>
-      </c>
-      <c r="T16">
-        <v>0.03338817555347576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>47.42968433333333</v>
-      </c>
-      <c r="H17">
-        <v>142.289053</v>
-      </c>
-      <c r="I17">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="J17">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>54.69403966666667</v>
-      </c>
-      <c r="N17">
-        <v>164.082119</v>
-      </c>
-      <c r="O17">
-        <v>0.9528104755815302</v>
-      </c>
-      <c r="P17">
-        <v>0.9528104755815302</v>
-      </c>
-      <c r="Q17">
-        <v>2594.121036304812</v>
-      </c>
-      <c r="R17">
-        <v>23347.08932674331</v>
-      </c>
-      <c r="S17">
-        <v>0.9092382965927649</v>
-      </c>
-      <c r="T17">
-        <v>0.9092382965927649</v>
+        <v>0.9572854888302663</v>
       </c>
     </row>
   </sheetData>
